--- a/Excel reports consolidation/Daily Reports/Coffee Shop 2.xlsx
+++ b/Excel reports consolidation/Daily Reports/Coffee Shop 2.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c12b539f5863eb1/Documentos/UiPath/Automation-Developer-Professional-Training/Excel reports consolidation/Daily Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3DCAF19C-AD60-40E9-8452-6350BD5C8782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6203A5AB-06E6-4753-A72E-7D708AFED1F1}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3DCAF19C-AD60-40E9-8452-6350BD5C8782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7876574-405D-44E3-BB57-4F58303975B1}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="645" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="1875" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="NewSheet" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,22 +413,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDBAFCA-FB33-4294-A694-8F62EC0DF1CA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Excel reports consolidation/Daily Reports/Coffee Shop 2.xlsx
+++ b/Excel reports consolidation/Daily Reports/Coffee Shop 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c12b539f5863eb1/Documentos/UiPath/Automation-Developer-Professional-Training/Excel reports consolidation/Daily Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3DCAF19C-AD60-40E9-8452-6350BD5C8782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7876574-405D-44E3-BB57-4F58303975B1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{3DCAF19C-AD60-40E9-8452-6350BD5C8782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5E2335A-5776-4FF8-A5BB-3D64BFC4A673}"/>
   <bookViews>
     <workbookView xWindow="8640" yWindow="1875" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
